--- a/TemperatureData/CampJohnson01/1001_2024.xlsx
+++ b/TemperatureData/CampJohnson01/1001_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/VTADS/HoboLoggerData/CampJohnson01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\CampJohnson01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96DAAA85-EDC8-49BC-A051-6911B5380A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD46413-5AB3-4766-BC4D-39645849A564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{89A685D4-A044-48BC-AE78-C20C2F940A45}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{89A685D4-A044-48BC-AE78-C20C2F940A45}"/>
   </bookViews>
   <sheets>
     <sheet name="1001_2024" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Plot Title: Camp Johnson -1</t>
   </si>
@@ -50,9 +50,6 @@
     <t>End Of File (LGR S/N: 21422132)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t>#Camp Johnson 1 (Lilpad Pond)</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>#Logger was collected on 08/12/2024 at 12:48</t>
+  </si>
+  <si>
+    <t>#All data after that date/time was deleted</t>
   </si>
 </sst>
 </file>
@@ -927,9 +927,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7D3D1-5E8D-41EA-B54B-442FAF521CE1}">
-  <dimension ref="A1:H5678"/>
+  <dimension ref="A1:H5670"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5637" workbookViewId="0">
+      <selection activeCell="C5645" sqref="C5645"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -80235,7 +80237,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5665" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5665">
         <v>5663</v>
       </c>
@@ -80249,7 +80251,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5666" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5666">
         <v>5664</v>
       </c>
@@ -80263,7 +80265,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="5667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5667">
         <v>5665</v>
       </c>
@@ -80277,7 +80279,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5668">
         <v>5666</v>
       </c>
@@ -80291,7 +80293,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5669" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5669">
         <v>5667</v>
       </c>
@@ -80305,7 +80307,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5670">
         <v>5668</v>
       </c>
@@ -80317,118 +80319,6 @@
       </c>
       <c r="D5670">
         <v>78</v>
-      </c>
-    </row>
-    <row r="5671" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5671">
-        <v>5669</v>
-      </c>
-      <c r="B5671" s="1">
-        <v>45516.541666666664</v>
-      </c>
-      <c r="C5671">
-        <v>80.206000000000003</v>
-      </c>
-      <c r="D5671">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5672" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5672">
-        <v>5670</v>
-      </c>
-      <c r="B5672" s="1">
-        <v>45516.552083333336</v>
-      </c>
-      <c r="C5672">
-        <v>81.09</v>
-      </c>
-      <c r="D5672">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5673" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5673">
-        <v>5671</v>
-      </c>
-      <c r="B5673" s="1">
-        <v>45516.5625</v>
-      </c>
-      <c r="C5673">
-        <v>79.677999999999997</v>
-      </c>
-      <c r="D5673">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5674" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5674">
-        <v>5672</v>
-      </c>
-      <c r="B5674" s="1">
-        <v>45516.572916666664</v>
-      </c>
-      <c r="C5674">
-        <v>79.325999999999993</v>
-      </c>
-      <c r="D5674">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5675" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5675">
-        <v>5673</v>
-      </c>
-      <c r="B5675" s="1">
-        <v>45516.583333333336</v>
-      </c>
-      <c r="C5675">
-        <v>79.501999999999995</v>
-      </c>
-      <c r="D5675">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5676" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5676">
-        <v>5674</v>
-      </c>
-      <c r="B5676" s="1">
-        <v>45516.59375</v>
-      </c>
-      <c r="C5676">
-        <v>79.677999999999997</v>
-      </c>
-      <c r="D5676">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5677" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5677">
-        <v>5675</v>
-      </c>
-      <c r="B5677" s="1">
-        <v>45516.603495370371</v>
-      </c>
-      <c r="E5677" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5677" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5678" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5678">
-        <v>5676</v>
-      </c>
-      <c r="B5678" s="1">
-        <v>45516.603634259256</v>
-      </c>
-      <c r="G5678" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5678" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -80438,9 +80328,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B343B66-1EBC-4716-B67D-F7A58C71EEF5}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -80448,26 +80338,31 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -80724,13 +80619,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBD566D1-7AEA-457E-BCB8-CF5D62CCD897}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBD566D1-7AEA-457E-BCB8-CF5D62CCD897}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEECD366-0786-47CB-8776-40D93B19BB7C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEECD366-0786-47CB-8776-40D93B19BB7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{998CC34C-8840-4EE9-BBB8-103FA679B066}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{998CC34C-8840-4EE9-BBB8-103FA679B066}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>